--- a/biology/Botanique/Leptonychia_subtomentosa/Leptonychia_subtomentosa.xlsx
+++ b/biology/Botanique/Leptonychia_subtomentosa/Leptonychia_subtomentosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptonychia subtomentosa est une espèce de plantes de la famille des Malvaceae et du genre Leptonychia, endémique du centre du Cameroun.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle doit son épithète spécifique subtomentosa à ses tiges légèrement tomenteuses[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle doit son épithète spécifique subtomentosa à ses tiges légèrement tomenteuses.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leptonychia subtomentosa est un arbuste ou petit arbre pouvant atteindre 5 m de hauteur. Ses poils bruns persistants d'environ 1 mm et sa localisation à moyenne altitude la distinguent notamment de Leptonychia kamerunensis[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leptonychia subtomentosa est un arbuste ou petit arbre pouvant atteindre 5 m de hauteur. Ses poils bruns persistants d'environ 1 mm et sa localisation à moyenne altitude la distinguent notamment de Leptonychia kamerunensis.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Endémique du Cameroun, assez rare, elle n'a été observée jusqu'ici que dans la Région du Centre, autour de Yaoundé, notamment dans le parc de la Méfou, dans la réserve forestière d'Ottotomo, sur les hauteurs de Kombeng à 8 km au sud-est de Matomb, à Nkolbisson[4].
-On la trouve à une altitude comprise entre 550 et 880 m[4].
-L'espèce est considérée comme « en danger », en lien avec la proximité d'une capitale en pleine expansion[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Endémique du Cameroun, assez rare, elle n'a été observée jusqu'ici que dans la Région du Centre, autour de Yaoundé, notamment dans le parc de la Méfou, dans la réserve forestière d'Ottotomo, sur les hauteurs de Kombeng à 8 km au sud-est de Matomb, à Nkolbisson.
+On la trouve à une altitude comprise entre 550 et 880 m.
+L'espèce est considérée comme « en danger », en lien avec la proximité d'une capitale en pleine expansion.
 </t>
         </is>
       </c>
